--- a/biology/Mycologie/Gyromitre/Gyromitre.xlsx
+++ b/biology/Mycologie/Gyromitre/Gyromitre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gyromitra est un genre de champignons de la famille des Discinaceae.
-La gyromitrine contenue dans les Gyromitra sp., un dérivé de l'hydrazine, est neurotoxique et serait à l'origine de cas de sclérose latérale amyotrophique[3],[4].
+La gyromitrine contenue dans les Gyromitra sp., un dérivé de l'hydrazine, est neurotoxique et serait à l'origine de cas de sclérose latérale amyotrophique,.
 </t>
         </is>
       </c>
@@ -512,16 +524,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (4 mars 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (4 mars 2019) :
 Gyromitra ambigua (P. Karst.) Harmaja
 Gyromitra esculenta (Pers.) Fr.
 Gyromitra fastigiata (Krombh.) Rehm
 Gyromitra gigas (Krombh.) Cooke
 Gyromitra infula (Schaeff.) Quél.
 Gyromitra montana Harmaja
-Selon Catalogue of Life                                   (4 mars 2019)[5] :
+Selon Catalogue of Life                                   (4 mars 2019) :
 Gyromitra accumbens Harmaja, 1986
 Gyromitra ambigua (P. Karst.) Harmaja, 1969
 Gyromitra apiculatula (McKnight) Berthet, 1972
@@ -559,7 +573,7 @@
 Gyromitra tasmanica Berk. &amp; Cooke, 1878
 Gyromitra warnei (Peck) Harmaja, 1973
 Gyromitra xinjiangensis J. Z. Cao, L. Fan &amp; B. Liu, 1990
-Selon Index Fungorum                                      (4 mars 2019)[6] :
+Selon Index Fungorum                                      (4 mars 2019) :
 Gyromitra accumbens Harmaja 1986
 Gyromitra ambigua (P. Karst.) Harmaja 1969
 Gyromitra antarctica Rehm 1899
